--- a/Study 1/results/INTBRSCI_sem_results.xlsx
+++ b/Study 1/results/INTBRSCI_sem_results.xlsx
@@ -467,22 +467,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.426477408577201</v>
+        <v>0.426477406017393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.12791536301404</v>
+        <v>0.127915365334789</v>
       </c>
       <c r="D2" t="n">
-        <v>3.33405932272883</v>
+        <v>3.33405924222777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000855884017594954</v>
+        <v>0.000855884265304807</v>
       </c>
       <c r="F2" t="n">
-        <v>0.175767904000316</v>
+        <v>0.175767896891924</v>
       </c>
       <c r="G2" t="n">
-        <v>0.677186913154086</v>
+        <v>0.677186915142862</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0675947715865103</v>
+        <v>0.0675947714865174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.14109790750717</v>
+        <v>0.141097907200496</v>
       </c>
       <c r="D3" t="n">
-        <v>0.479062891723432</v>
+        <v>0.479062892055991</v>
       </c>
       <c r="E3" t="n">
-        <v>0.63189388777243</v>
+        <v>0.631893887535853</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.208952045421507</v>
+        <v>-0.208952044920429</v>
       </c>
       <c r="G3" t="n">
-        <v>0.344141588594527</v>
+        <v>0.344141587893464</v>
       </c>
     </row>
     <row r="4">
@@ -513,22 +513,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0837874311166311</v>
+        <v>-0.0837874303329647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.140924070414269</v>
+        <v>0.140924070963073</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.594557273788108</v>
+        <v>-0.594557265911799</v>
       </c>
       <c r="E4" t="n">
-        <v>0.55213944728234</v>
+        <v>0.552139452548592</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.359993533683385</v>
+        <v>-0.359993533975354</v>
       </c>
       <c r="G4" t="n">
-        <v>0.192418671450123</v>
+        <v>0.192418673309424</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0646584152604836</v>
+        <v>0.0646584151648344</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13496853206032</v>
+        <v>0.134968531766968</v>
       </c>
       <c r="D5" t="n">
-        <v>0.479062891723432</v>
+        <v>0.479062892055991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.63189388777243</v>
+        <v>0.631893887535853</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.199875046623983</v>
+        <v>-0.199875046144672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.32919187714495</v>
+        <v>0.329191876474341</v>
       </c>
     </row>
     <row r="6">
@@ -559,22 +559,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0872755431393263</v>
+        <v>-0.0872755423230355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.14679080887072</v>
+        <v>0.14679080944237</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.594557273788108</v>
+        <v>-0.594557265911799</v>
       </c>
       <c r="E6" t="n">
-        <v>0.55213944728234</v>
+        <v>0.552139452548592</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.374980241787439</v>
+        <v>-0.374980242091563</v>
       </c>
       <c r="G6" t="n">
-        <v>0.200429155508787</v>
+        <v>0.200429157445492</v>
       </c>
     </row>
     <row r="7">
@@ -582,22 +582,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.72419597290377</v>
+        <v>0.724195973892917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.133612030460434</v>
+        <v>0.133612028821879</v>
       </c>
       <c r="D7" t="n">
-        <v>5.42014046495779</v>
+        <v>5.42014053883096</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0000000595522253732383</v>
+        <v>0.0000000595522007262872</v>
       </c>
       <c r="F7" t="n">
-        <v>0.462321205300051</v>
+        <v>0.462321209500706</v>
       </c>
       <c r="G7" t="n">
-        <v>0.986070740507489</v>
+        <v>0.986070738285127</v>
       </c>
     </row>
     <row r="8">
@@ -605,22 +605,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.181982065730968</v>
+        <v>-0.181982066576043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.145315487445481</v>
+        <v>0.145315486545146</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.25232395342062</v>
+        <v>-1.25232396699512</v>
       </c>
       <c r="E8" t="n">
-        <v>0.210451844024283</v>
+        <v>0.210451839079941</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.466795187519992</v>
+        <v>-0.466795186600444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.102831056058056</v>
+        <v>0.102831053448358</v>
       </c>
     </row>
     <row r="9">
@@ -628,22 +628,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.92334124290372</v>
+        <v>0.92334122459614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189473044212055</v>
+        <v>0.189473040591391</v>
       </c>
       <c r="D9" t="n">
-        <v>4.87320635367179</v>
+        <v>4.87320635017081</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000109801426795286</v>
+        <v>0.00000109801428749279</v>
       </c>
       <c r="F9" t="n">
-        <v>0.551980900206927</v>
+        <v>0.551980888995717</v>
       </c>
       <c r="G9" t="n">
-        <v>1.29470158560051</v>
+        <v>1.29470156019656</v>
       </c>
     </row>
     <row r="10">
@@ -651,22 +651,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.906178038634738</v>
+        <v>0.90617804046896</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0451122584130832</v>
+        <v>0.0451122587763634</v>
       </c>
       <c r="D10" t="n">
-        <v>20.0871796383383</v>
+        <v>20.0871795172392</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.817759636883831</v>
+        <v>0.817759638006037</v>
       </c>
       <c r="G10" t="n">
-        <v>0.994596440385646</v>
+        <v>0.994596442931883</v>
       </c>
     </row>
     <row r="11">
@@ -674,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.15193395839981</v>
+        <v>0.15193395748787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0455702624603306</v>
+        <v>0.0455702632871049</v>
       </c>
       <c r="D11" t="n">
-        <v>3.33405932283295</v>
+        <v>3.33405924233189</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000855884017274544</v>
+        <v>0.000855884264984397</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0626178852115242</v>
+        <v>0.0626178826791365</v>
       </c>
       <c r="G11" t="n">
-        <v>0.241250031588095</v>
+        <v>0.241250032296603</v>
       </c>
     </row>
     <row r="12">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.151382202703141</v>
+        <v>0.151382201819482</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0440902138721568</v>
+        <v>0.0440902144936324</v>
       </c>
       <c r="D12" t="n">
-        <v>3.4334649213108</v>
+        <v>3.43346485287217</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000595919307809112</v>
+        <v>0.000595919458248551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0649669714430457</v>
+        <v>0.0649669693413166</v>
       </c>
       <c r="G12" t="n">
-        <v>0.237797433963237</v>
+        <v>0.237797434297648</v>
       </c>
     </row>
     <row r="13">
@@ -720,22 +720,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.152246902612574</v>
+        <v>0.152246901693967</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0459702649274992</v>
+        <v>0.0459702657576481</v>
       </c>
       <c r="D13" t="n">
-        <v>3.31185610639151</v>
+        <v>3.31185602660209</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000926792024374956</v>
+        <v>0.000926792288694633</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0621468389949105</v>
+        <v>0.0621468364492415</v>
       </c>
       <c r="G13" t="n">
-        <v>0.242346966230237</v>
+        <v>0.242346966938692</v>
       </c>
     </row>
     <row r="14">
@@ -743,22 +743,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.151682335851779</v>
+        <v>0.15168233496212</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0443472259443968</v>
+        <v>0.0443472265729816</v>
       </c>
       <c r="D14" t="n">
-        <v>3.42033425139061</v>
+        <v>3.42033418284904</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000625442361161799</v>
+        <v>0.000625442518761954</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0647633701865009</v>
+        <v>0.0647633680648386</v>
       </c>
       <c r="G14" t="n">
-        <v>0.238601301517057</v>
+        <v>0.238601301859402</v>
       </c>
     </row>
     <row r="15">
@@ -766,22 +766,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.96428901200716</v>
+        <v>-5.96428905987858</v>
       </c>
       <c r="C15" t="n">
-        <v>1.81337099991138</v>
+        <v>1.81337105736929</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.28906164943558</v>
+        <v>-3.28906157161852</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00100522003000036</v>
+        <v>0.00100522030792827</v>
       </c>
       <c r="F15" t="n">
-        <v>-9.51843086244284</v>
+        <v>-9.51843102292971</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.41014716157147</v>
+        <v>-2.41014709682746</v>
       </c>
     </row>
     <row r="16">
@@ -789,22 +789,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0226171278788427</v>
+        <v>-0.0226171271582011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.278300994626631</v>
+        <v>0.278300994809753</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0812685844302707</v>
+        <v>-0.0812685817873635</v>
       </c>
       <c r="E16" t="n">
-        <v>0.93522835731916</v>
+        <v>0.935228359420943</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.568077054208714</v>
+        <v>-0.568077053846986</v>
       </c>
       <c r="G16" t="n">
-        <v>0.522842798451029</v>
+        <v>0.522842799530584</v>
       </c>
     </row>
     <row r="17">
@@ -812,22 +812,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0113085639394213</v>
+        <v>-0.0113085635791005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.139150497313315</v>
+        <v>0.139150497404877</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0812685844302707</v>
+        <v>-0.0812685817873635</v>
       </c>
       <c r="E17" t="n">
-        <v>0.93522835731916</v>
+        <v>0.935228359420943</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.284038527104357</v>
+        <v>-0.284038526923493</v>
       </c>
       <c r="G17" t="n">
-        <v>0.261421399225514</v>
+        <v>0.261421399765292</v>
       </c>
     </row>
     <row r="18">
@@ -835,22 +835,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>0.140625394460388</v>
+        <v>0.140625393908769</v>
       </c>
       <c r="C18" t="n">
-        <v>0.134567725702874</v>
+        <v>0.134567725159733</v>
       </c>
       <c r="D18" t="n">
-        <v>1.04501576232989</v>
+        <v>1.04501576244858</v>
       </c>
       <c r="E18" t="n">
-        <v>0.29601568457095</v>
+        <v>0.296015684516095</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.123122501398709</v>
+        <v>-0.123122500885791</v>
       </c>
       <c r="G18" t="n">
-        <v>0.404373290319486</v>
+        <v>0.40437328870333</v>
       </c>
     </row>
     <row r="19">
@@ -858,22 +858,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0226171278788427</v>
+        <v>-0.0226171271582011</v>
       </c>
       <c r="C19" t="n">
-        <v>0.278300994626631</v>
+        <v>0.278300994809753</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0812685844302707</v>
+        <v>-0.0812685817873635</v>
       </c>
       <c r="E19" t="n">
-        <v>0.93522835731916</v>
+        <v>0.935228359420943</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.568077054208714</v>
+        <v>-0.568077053846986</v>
       </c>
       <c r="G19" t="n">
-        <v>0.522842798451029</v>
+        <v>0.522842799530584</v>
       </c>
     </row>
     <row r="20">
@@ -881,22 +881,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>0.15193395839981</v>
+        <v>0.15193395748787</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0455702624603306</v>
+        <v>0.0455702632871049</v>
       </c>
       <c r="D20" t="n">
-        <v>3.33405932283295</v>
+        <v>3.33405924233189</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000427942008637254</v>
+        <v>0.00042794213249224</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0626178852115242</v>
+        <v>0.0626178826791365</v>
       </c>
       <c r="G20" t="n">
-        <v>0.241250031588095</v>
+        <v>0.241250032296603</v>
       </c>
     </row>
     <row r="21">
@@ -904,22 +904,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0226171278788427</v>
+        <v>0.0226171271582011</v>
       </c>
       <c r="C21" t="n">
-        <v>0.278300994626631</v>
+        <v>0.278300994809753</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0812685844302707</v>
+        <v>0.0812685817873635</v>
       </c>
       <c r="E21" t="n">
-        <v>0.46761417865958</v>
+        <v>0.467614179710472</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.522842798451029</v>
+        <v>-0.522842799530584</v>
       </c>
       <c r="G21" t="n">
-        <v>0.568077054208714</v>
+        <v>0.568077053846986</v>
       </c>
     </row>
     <row r="22">
@@ -927,22 +927,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>0.129316830520967</v>
+        <v>0.129316830329669</v>
       </c>
       <c r="C22" t="n">
-        <v>0.26993706412064</v>
+        <v>0.269937063533935</v>
       </c>
       <c r="D22" t="n">
-        <v>0.479062891723432</v>
+        <v>0.479062892055991</v>
       </c>
       <c r="E22" t="n">
-        <v>0.315946943886215</v>
+        <v>0.315946943767926</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.399750093247966</v>
+        <v>-0.399750092289344</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6583837542899</v>
+        <v>0.658383752948682</v>
       </c>
     </row>
     <row r="23">
@@ -950,16 +950,16 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.151682335851779</v>
+        <v>0.15168233496212</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0443472259443968</v>
+        <v>0.0443472265729816</v>
       </c>
       <c r="D23" t="n">
-        <v>3.42033425139061</v>
+        <v>3.42033418284904</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999687278819419</v>
+        <v>0.999687278740619</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
@@ -969,16 +969,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>0.152246902612574</v>
+        <v>0.152246901693967</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0459702649274992</v>
+        <v>0.0459702657576481</v>
       </c>
       <c r="D24" t="n">
-        <v>3.31185610639151</v>
+        <v>3.31185602660209</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999536603987813</v>
+        <v>0.999536603855653</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -988,16 +988,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>5.96428901200716</v>
+        <v>5.96428905987858</v>
       </c>
       <c r="C25" t="n">
-        <v>1.81337099991138</v>
+        <v>1.81337105736929</v>
       </c>
       <c r="D25" t="n">
-        <v>3.28906164943558</v>
+        <v>3.28906157161852</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999497389985</v>
+        <v>0.999497389846036</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -1007,16 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>5.96428901200716</v>
+        <v>5.96428905987858</v>
       </c>
       <c r="C26" t="n">
-        <v>1.81337099991138</v>
+        <v>1.81337105736929</v>
       </c>
       <c r="D26" t="n">
-        <v>3.28906164943558</v>
+        <v>3.28906157161852</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000502610015000198</v>
+        <v>0.000502610153964101</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
